--- a/CleanData/EvaluationKAIOp.xlsx
+++ b/CleanData/EvaluationKAIOp.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\Evaluation\CleanData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrolealdino/GitHub/Evaluation/CleanData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="442" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-45360" yWindow="3480" windowWidth="24480" windowHeight="14500" tabRatio="442" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,14 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,27 +39,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
   <si>
     <t>N1</t>
   </si>
@@ -147,12 +132,33 @@
   <si>
     <t>Institute of Computer Technology and Information Protection</t>
   </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty    </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,10 +219,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -266,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,9 +317,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -341,31 +347,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -393,23 +382,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,130 +560,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125"/>
-    <col min="2" max="2" width="3.28515625"/>
-    <col min="3" max="3" width="3.42578125"/>
-    <col min="4" max="4" width="6"/>
-    <col min="5" max="5" width="5"/>
-    <col min="6" max="6" width="5.42578125"/>
-    <col min="7" max="7" width="5"/>
-    <col min="8" max="34" width="9.140625" style="6"/>
-    <col min="35" max="37" width="4.42578125"/>
-    <col min="38" max="38" width="4.7109375"/>
-    <col min="39" max="39" width="4.5703125"/>
-    <col min="40" max="40" width="4.42578125"/>
-    <col min="41" max="41" width="5.42578125"/>
-    <col min="42" max="42" width="4.7109375"/>
+    <col min="8" max="34" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="72" customHeight="1">
+    <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -722,7 +681,7 @@
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="15.75" customHeight="1">
+    <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -732,8 +691,8 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>8</v>
@@ -826,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="363.75">
+    <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -836,8 +795,8 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>8</v>
@@ -930,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="363.75">
+    <row r="4" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -940,8 +899,8 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>9</v>
@@ -1034,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="363.75">
+    <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -1044,8 +1003,8 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>8</v>
@@ -1138,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="363.75">
+    <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1148,8 +1107,8 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="6">
         <v>6</v>
@@ -1242,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="363.75">
+    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1252,8 +1211,8 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>8</v>
@@ -1346,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="363.75">
+    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1356,8 +1315,8 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="6">
         <v>8</v>
@@ -1450,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="363.75">
+    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>0</v>
       </c>
@@ -1460,8 +1419,8 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
@@ -1554,113 +1513,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="8"/>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1672,132 +1631,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125"/>
-    <col min="2" max="2" width="3.28515625"/>
-    <col min="3" max="3" width="3.42578125"/>
-    <col min="4" max="4" width="6"/>
-    <col min="5" max="5" width="5"/>
-    <col min="6" max="6" width="5.42578125"/>
-    <col min="7" max="7" width="5"/>
-    <col min="8" max="8" width="3.5703125"/>
-    <col min="9" max="13" width="3.28515625"/>
-    <col min="14" max="37" width="4.42578125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" ht="72" customHeight="1">
+    <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1807,8 +1754,8 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
+      <c r="D2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>8</v>
@@ -1901,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="363.75">
+    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1911,8 +1858,8 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>8</v>
@@ -2005,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="363.75">
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2015,8 +1962,8 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>9</v>
@@ -2109,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="363.75">
+    <row r="5" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -2119,8 +2066,8 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>8</v>
@@ -2213,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="363.75">
+    <row r="6" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2223,8 +2170,8 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="6">
         <v>6</v>
@@ -2317,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="363.75">
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2327,8 +2274,8 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>8</v>
@@ -2421,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="363.75">
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -2431,8 +2378,8 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="6">
         <v>8</v>
@@ -2525,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="363.75">
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>0</v>
       </c>
@@ -2535,8 +2482,8 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
@@ -2629,326 +2576,326 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2963,27 +2910,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2994,7 +2938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -3005,7 +2949,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -3016,7 +2960,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -3027,7 +2971,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -3038,7 +2982,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -3049,7 +2993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>7</v>
       </c>
@@ -3060,7 +3004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -3085,127 +3029,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125"/>
-    <col min="9" max="13" width="3.28515625"/>
-    <col min="14" max="34" width="4.42578125"/>
-    <col min="35" max="42" width="4"/>
+    <col min="1" max="1" width="3.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="72" customHeight="1">
+    <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -3216,7 +3156,7 @@
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="15.75" customHeight="1">
+    <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3226,7 +3166,7 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="8" t="str">
         <f>[1]PreQOld!D2</f>
         <v>Institute of Computer Technology and Information Protection</v>
       </c>
@@ -3321,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="203.25">
+    <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -3331,8 +3271,8 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>8</v>
@@ -3425,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="203.25">
+    <row r="4" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -3435,8 +3375,8 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>8</v>
@@ -3529,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="203.25">
+    <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3539,8 +3479,8 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>6</v>
@@ -3633,7 +3573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="203.25">
+    <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -3643,8 +3583,8 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="6">
         <v>8</v>
@@ -3737,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="203.25">
+    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3747,8 +3687,8 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>7</v>
@@ -3841,7 +3781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="203.25">
+    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3851,8 +3791,8 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="6">
         <v>8</v>
@@ -3945,7 +3885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="203.25">
+    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3955,8 +3895,8 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>9</v>
@@ -4049,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="203.25">
+    <row r="10" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -4059,8 +3999,8 @@
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
@@ -4153,7 +4093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="203.25">
+    <row r="11" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -4163,8 +4103,8 @@
       <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -4257,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="203.25">
+    <row r="12" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -4267,8 +4207,8 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="6">
         <v>7</v>
@@ -4361,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="203.25">
+    <row r="13" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>0</v>
       </c>
@@ -4371,8 +4311,8 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="6">
         <v>8</v>
@@ -4465,7 +4405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="203.25">
+    <row r="14" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -4475,8 +4415,8 @@
       <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="6">
         <v>9</v>
@@ -4569,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="203.25">
+    <row r="15" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>0</v>
       </c>
@@ -4579,8 +4519,8 @@
       <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="6">
         <v>9</v>
@@ -4673,77 +4613,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="8"/>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4755,155 +4695,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="6" customWidth="1"/>
+    <col min="8" max="9" width="4.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="5" style="6" customWidth="1"/>
     <col min="12" max="12" width="4" style="6" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="4.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="6" customWidth="1"/>
-    <col min="22" max="24" width="5.42578125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="4.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" style="6" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="6" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" style="6" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" style="6" customWidth="1"/>
-    <col min="33" max="33" width="5.140625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="6"/>
-    <col min="36" max="37" width="4.42578125"/>
+    <col min="13" max="13" width="4.33203125" style="6" customWidth="1"/>
+    <col min="14" max="15" width="4.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="4.83203125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="6" customWidth="1"/>
+    <col min="22" max="24" width="5.5" style="6" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="4.5" style="6" customWidth="1"/>
+    <col min="30" max="30" width="5.5" style="6" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="4.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" style="6" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="72" customHeight="1">
+    <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="15.75" customHeight="1">
+    <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -4913,7 +4851,7 @@
       <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="8" t="str">
         <f>[1]PreQOld!D2</f>
         <v>Institute of Computer Technology and Information Protection</v>
       </c>
@@ -5008,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="203.25">
+    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -5018,8 +4956,8 @@
       <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
+      <c r="D3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>8</v>
@@ -5112,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="203.25">
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -5122,8 +5060,8 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>8</v>
@@ -5216,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="203.25">
+    <row r="5" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -5226,8 +5164,8 @@
       <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>6</v>
@@ -5320,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="203.25">
+    <row r="6" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -5330,8 +5268,8 @@
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="6">
         <v>8</v>
@@ -5424,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="203.25">
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5434,8 +5372,8 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>7</v>
@@ -5528,7 +5466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="203.25">
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -5538,8 +5476,8 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="6">
         <v>8</v>
@@ -5632,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="203.25">
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -5642,8 +5580,8 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>9</v>
@@ -5736,7 +5674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="203.25">
+    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>0</v>
       </c>
@@ -5746,8 +5684,8 @@
       <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
+      <c r="D10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
@@ -5840,7 +5778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="203.25">
+    <row r="11" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -5850,8 +5788,8 @@
       <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -5944,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="203.25">
+    <row r="12" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -5954,8 +5892,8 @@
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="6">
         <v>7</v>
@@ -6048,7 +5986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="203.25">
+    <row r="13" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>0</v>
       </c>
@@ -6058,8 +5996,8 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
+      <c r="D13" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="6">
         <v>8</v>
@@ -6152,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="203.25">
+    <row r="14" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -6162,8 +6100,8 @@
       <c r="C14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="6">
         <v>9</v>
@@ -6256,7 +6194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="203.25">
+    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>0</v>
       </c>
@@ -6266,8 +6204,8 @@
       <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="6">
         <v>9</v>
@@ -6360,77 +6298,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="8"/>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6442,24 +6380,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6470,7 +6408,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -6481,7 +6419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6492,7 +6430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6503,7 +6441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6514,7 +6452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6525,7 +6463,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6536,7 +6474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6547,7 +6485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -6558,7 +6496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6569,7 +6507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -6580,7 +6518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -6591,7 +6529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -6602,7 +6540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
